--- a/data/other/Fernandez_etal_2004_Table24.2.xlsx
+++ b/data/other/Fernandez_etal_2004_Table24.2.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CFD6495C-F3E8-E24D-B27B-5EACFACE97F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABB34B-9050-8647-A4CA-960BE7BDE9E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="500" windowWidth="32100" windowHeight="20180" xr2:uid="{56541FDB-EB97-AD41-B669-9C6E8278AF93}"/>
+    <workbookView xWindow="19260" yWindow="500" windowWidth="32100" windowHeight="20180" activeTab="1" xr2:uid="{56541FDB-EB97-AD41-B669-9C6E8278AF93}"/>
   </bookViews>
   <sheets>
     <sheet name="Fernandez_etal_2004" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Species-toxins" sheetId="4" r:id="rId2"/>
+    <sheet name="Species" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fernandez_etal_2004!$A$1:$E$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Species-toxins'!$A$1:$B$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="131">
   <si>
     <t>Species</t>
   </si>
@@ -424,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1298,12 +1299,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567A9B51-BC38-7745-A9ED-15FC477EF9CD}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
@@ -1312,7 +1313,7 @@
     <col min="5" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2113,7 +2114,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E47" xr:uid="{567A9B51-BC38-7745-A9ED-15FC477EF9CD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E47">
+    <sortState ref="A2:E47">
       <sortCondition ref="A1:A47"/>
     </sortState>
   </autoFilter>
@@ -2122,394 +2123,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FFD00B-332D-4A40-8C7B-02DD5CE87BD7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE48F7-5ED7-134D-80C4-B3C6FBB19870}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B35" xr:uid="{3BAFBD48-5AEF-F342-A196-56A3A85AE4EE}">
+    <sortState ref="A2:B35">
+      <sortCondition ref="B1:B35"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FBCEBD-DD9F-654E-92D3-9BF693A7A1B3}">
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
